--- a/biology/Biochimie/Acide_sapiénique/Acide_sapiénique.xlsx
+++ b/biology/Biochimie/Acide_sapiénique/Acide_sapiénique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_sapi%C3%A9nique</t>
+          <t>Acide_sapiénique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'acide sapiénique, ou acide cis-6-hexadécénoïque (16:1, n-10), est un acide gras insaturé qui est le constituant principal du sébum humain. Cet acide gras est unique à l'espèce humaine ; son équivalent dans le sébum de souris est l'acide palmitoléique[2] (16:1, n-7).
-Il serait impliqué dans le développement de l'acné [3]. L'acide sapienique peut inhiber efficacement Staphylococcus aureus pathogène, mais n'a pas une activité suffisante contre Staphylococcus epidermidis [4].
+L'acide sapiénique, ou acide cis-6-hexadécénoïque (16:1, n-10), est un acide gras insaturé qui est le constituant principal du sébum humain. Cet acide gras est unique à l'espèce humaine ; son équivalent dans le sébum de souris est l'acide palmitoléique (16:1, n-7).
+Il serait impliqué dans le développement de l'acné . L'acide sapienique peut inhiber efficacement Staphylococcus aureus pathogène, mais n'a pas une activité suffisante contre Staphylococcus epidermidis .
 </t>
         </is>
       </c>
